--- a/shiny/data/diccionario_cod.variable.xlsx
+++ b/shiny/data/diccionario_cod.variable.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ceped-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\shiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3C90F7-226D-497D-A7D7-9549B17E4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A37FA2-CEC8-41D8-93DC-740DD3A50081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -506,6 +509,15 @@
   </si>
   <si>
     <t>Porcentaje total de personas ocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
+  </si>
+  <si>
+    <t>Salario en dolares corrientes</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario nominal doblemente bruto  que surge de las estimaciones de Cuentas Nacionales de los respectivos países. Es el equivalente al cociente entre la masa salarial y la cantidad de asalariados promedio del año. Expresado en términos mensuales. Converido a dólares estadounidenses a partir del tipo de cambio nominal (Banco Mundial)</t>
+  </si>
+  <si>
+    <t>salario_dolares</t>
   </si>
 </sst>
 </file>
@@ -839,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,105 +937,108 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1031,10 +1046,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -1042,10 +1057,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1053,10 +1068,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1064,10 +1079,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1075,10 +1090,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -1086,10 +1101,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -1097,10 +1112,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -1108,10 +1123,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1119,10 +1134,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1130,10 +1145,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -1141,10 +1156,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -1152,10 +1167,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -1163,10 +1178,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -1174,10 +1189,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -1185,10 +1200,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -1196,10 +1211,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1207,10 +1222,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -1218,10 +1233,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -1229,10 +1244,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -1240,10 +1255,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -1251,10 +1266,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1262,10 +1277,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -1273,351 +1288,362 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
         <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
         <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
         <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
         <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
         <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
         <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
         <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
         <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
         <v>123</v>
       </c>
       <c r="D60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
         <v>158</v>
       </c>
     </row>

--- a/shiny/data/diccionario_cod.variable.xlsx
+++ b/shiny/data/diccionario_cod.variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\shiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A37FA2-CEC8-41D8-93DC-740DD3A50081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B913F9-F06A-400A-B91D-820A0AAB6F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -518,6 +518,24 @@
   </si>
   <si>
     <t>salario_dolares</t>
+  </si>
+  <si>
+    <t>salario_relativo_usa_dolares</t>
+  </si>
+  <si>
+    <t>Salario relativo a USA en dólares corrientes</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario nominal doblemente bruto  que surge de las estimaciones de Cuentas Nacionales de los respectivos países. Es el equivalente al cociente entre la masa salarial y la cantidad de asalariados promedio del año. Expresado en términos mensuales. Converido a dólares estadounidenses a partir del tipo de cambio nominal (Banco Mundial). Expresado en términos relativos al salario de Estados Unidos.</t>
+  </si>
+  <si>
+    <t>tcn_ppa_cpriv</t>
+  </si>
+  <si>
+    <t>Esta variable indica el cociente entre el tipo de cambio nominal (Banco Mundial) y el coeficiente de paridad de poder adquisitivo correspondiente al agregado "consumo privado". La serie de pardidad de poder adquisitivo está construida a partir del coeficiente del benchmark del año 2017 publicado por el Banco Mundial, extrapolado con la evolución de los índices de precios al consumidor de los países respecto a la evolución del índice de precios al consumidor de Estados Unidos</t>
+  </si>
+  <si>
+    <t>Cociente entre el TCN y PPA consumo privado</t>
   </si>
 </sst>
 </file>
@@ -851,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,144 +941,150 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1068,10 +1092,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1079,10 +1103,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1090,10 +1114,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -1101,10 +1125,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -1112,10 +1136,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -1123,10 +1147,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1134,10 +1158,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1145,10 +1169,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -1156,10 +1180,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -1167,10 +1191,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -1178,10 +1202,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -1189,10 +1213,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -1200,10 +1224,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -1211,10 +1235,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1222,10 +1246,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -1233,10 +1257,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -1244,10 +1268,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -1255,10 +1279,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -1266,10 +1290,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1277,10 +1301,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -1288,10 +1312,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -1299,351 +1323,373 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
         <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
         <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
         <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
         <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
         <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
         <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
         <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
         <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
         <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
         <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
         <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
         <v>123</v>
       </c>
       <c r="D61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
         <v>158</v>
       </c>
     </row>
